--- a/data/excel/2024/07/29.xlsx
+++ b/data/excel/2024/07/29.xlsx
@@ -16,24 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Max Price</t>
+  </si>
+  <si>
+    <t>Min Price</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Max Price</t>
-  </si>
-  <si>
-    <t>Min Price</t>
-  </si>
-  <si>
-    <t>Avg Price</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -52,6 +52,9 @@
     <t>KG</t>
   </si>
   <si>
+    <t>Tomato Small(Local)</t>
+  </si>
+  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>Tomato Small(Local)</t>
+    <t>39.00</t>
   </si>
   <si>
     <t>Tomato Small(Tunnel)</t>
@@ -73,7 +76,7 @@
     <t>32.00</t>
   </si>
   <si>
-    <t>39.00</t>
+    <t>Potato Red</t>
   </si>
   <si>
     <t>65.00</t>
@@ -82,9 +85,6 @@
     <t>68.00</t>
   </si>
   <si>
-    <t>Potato Red</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>Potato Red(Indian)</t>
   </si>
   <si>
+    <t>Potato Red(Mude)</t>
+  </si>
+  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -106,22 +109,25 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>Potato Red(Mude)</t>
+    <t>Potato White</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>Potato White</t>
+    <t>82.40</t>
+  </si>
+  <si>
+    <t>Onion Dry (Indian)</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>82.40</t>
-  </si>
-  <si>
-    <t>Onion Dry (Indian)</t>
+    <t>Carrot(Local)</t>
+  </si>
+  <si>
+    <t>110.00</t>
   </si>
   <si>
     <t>100.00</t>
@@ -130,27 +136,21 @@
     <t>106.67</t>
   </si>
   <si>
-    <t>Carrot(Local)</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>Cabbage(Local)</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
+    <t>Cauli Local</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>86.67</t>
   </si>
   <si>
-    <t>Cauli Local</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>Cauli Local(Jyapu)</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>21.67</t>
   </si>
   <si>
+    <t>Raddish White(Hybrid)</t>
+  </si>
+  <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>Raddish White(Hybrid)</t>
-  </si>
-  <si>
     <t>Brinjal Long</t>
   </si>
   <si>
@@ -184,24 +184,27 @@
     <t>Brinjal Round</t>
   </si>
   <si>
+    <t>76.00</t>
+  </si>
+  <si>
     <t>Cow pea(Long)</t>
   </si>
   <si>
-    <t>76.00</t>
+    <t>95.00</t>
   </si>
   <si>
     <t>Cowpea(Short)</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
     <t>French Bean(Local)</t>
   </si>
   <si>
     <t>French Bean(Hybrid)</t>
   </si>
   <si>
+    <t>135.00</t>
+  </si>
+  <si>
     <t>French Bean(Rajma)</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>Sword Bean</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>115.00</t>
   </si>
   <si>
+    <t>Soyabean Green</t>
+  </si>
+  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -232,21 +235,18 @@
     <t>170.00</t>
   </si>
   <si>
-    <t>Soyabean Green</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
     <t>Bitter Gourd</t>
   </si>
   <si>
+    <t>36.00</t>
+  </si>
+  <si>
     <t>Bottle Gourd</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>Pointed Gourd(Local)</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Snake Gourd</t>
   </si>
   <si>
+    <t>Smooth Gourd</t>
+  </si>
+  <si>
     <t>34.00</t>
   </si>
   <si>
-    <t>Smooth Gourd</t>
-  </si>
-  <si>
     <t>Sponge Gourd</t>
   </si>
   <si>
@@ -274,31 +274,34 @@
     <t>Squash(Round)</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>Okara</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>Arum</t>
   </si>
   <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>Christophine</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>Brd Leaf Mustard</t>
   </si>
   <si>
     <t>Mustard Leaf</t>
   </si>
   <si>
+    <t>Onion Green</t>
+  </si>
+  <si>
     <t>150.00</t>
   </si>
   <si>
-    <t>Onion Green</t>
+    <t>200.00</t>
   </si>
   <si>
     <t>192.00</t>
@@ -307,21 +310,18 @@
     <t>Mushroom(Kanya)</t>
   </si>
   <si>
-    <t>200.00</t>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
   </si>
   <si>
     <t>Mushroom(Button)</t>
   </si>
   <si>
-    <t>320.00</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
     <t>Asparagus</t>
   </si>
   <si>
@@ -355,16 +355,22 @@
     <t>375.00</t>
   </si>
   <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
     <t>250.00</t>
   </si>
   <si>
     <t>255.00</t>
   </si>
   <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>260.00</t>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>Parseley</t>
   </si>
   <si>
     <t>800.00</t>
@@ -373,24 +379,18 @@
     <t>700.00</t>
   </si>
   <si>
-    <t>750.00</t>
-  </si>
-  <si>
-    <t>Parseley</t>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
   </si>
   <si>
     <t>Mint</t>
   </si>
   <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
     <t>Turnip A</t>
   </si>
   <si>
@@ -409,16 +409,19 @@
     <t>Tofu</t>
   </si>
   <si>
+    <t>Gundruk</t>
+  </si>
+  <si>
     <t>275.00</t>
   </si>
   <si>
-    <t>Gundruk</t>
+    <t>Apple(Fuji)</t>
   </si>
   <si>
     <t>310.00</t>
   </si>
   <si>
-    <t>Apple(Fuji)</t>
+    <t>Per Dozen</t>
   </si>
   <si>
     <t>136.67</t>
@@ -427,9 +430,6 @@
     <t>Banana</t>
   </si>
   <si>
-    <t>Per Dozen</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
@@ -448,36 +448,36 @@
     <t>Mango(Calcutte)</t>
   </si>
   <si>
+    <t>Grapes(Black)</t>
+  </si>
+  <si>
     <t>480.00</t>
   </si>
   <si>
     <t>490.00</t>
   </si>
   <si>
-    <t>Grapes(Black)</t>
-  </si>
-  <si>
     <t>Water Melon(Green)</t>
   </si>
   <si>
     <t>66.67</t>
   </si>
   <si>
+    <t>146.67</t>
+  </si>
+  <si>
     <t>Sweet Orange</t>
   </si>
   <si>
-    <t>146.67</t>
-  </si>
-  <si>
     <t>Mandarin</t>
   </si>
   <si>
+    <t>1 Pc</t>
+  </si>
+  <si>
     <t>Pineapple</t>
   </si>
   <si>
-    <t>1 Pc</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -496,21 +496,21 @@
     <t>Pear(Local)</t>
   </si>
   <si>
+    <t>Pear(Chinese)</t>
+  </si>
+  <si>
     <t>290.00</t>
   </si>
   <si>
-    <t>Pear(Chinese)</t>
-  </si>
-  <si>
     <t>Papaya(Indian)</t>
   </si>
   <si>
+    <t>525.00</t>
+  </si>
+  <si>
     <t>Kiwi</t>
   </si>
   <si>
-    <t>525.00</t>
-  </si>
-  <si>
     <t>Avocado</t>
   </si>
   <si>
@@ -520,15 +520,15 @@
     <t>Ginger</t>
   </si>
   <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
     <t>Chilli Dry</t>
   </si>
   <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>425.00</t>
-  </si>
-  <si>
     <t>Chilli Green</t>
   </si>
   <si>
@@ -541,21 +541,21 @@
     <t>76.67</t>
   </si>
   <si>
+    <t>325.00</t>
+  </si>
+  <si>
     <t>Chilli Green(Akbare)</t>
   </si>
   <si>
-    <t>325.00</t>
-  </si>
-  <si>
     <t>Capsicum</t>
   </si>
   <si>
+    <t>Garlic Green</t>
+  </si>
+  <si>
     <t>165.00</t>
   </si>
   <si>
-    <t>Garlic Green</t>
-  </si>
-  <si>
     <t>Coriander Green</t>
   </si>
   <si>
@@ -580,39 +580,42 @@
     <t>Clive Dry</t>
   </si>
   <si>
+    <t>Clive Green</t>
+  </si>
+  <si>
     <t>190.00</t>
   </si>
   <si>
-    <t>Clive Green</t>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>345.00</t>
   </si>
   <si>
     <t>Fish Fresh(Rahu)</t>
   </si>
   <si>
-    <t>340.00</t>
-  </si>
-  <si>
-    <t>345.00</t>
-  </si>
-  <si>
     <t>246.67</t>
   </si>
   <si>
     <t>Fish Fresh(Bachuwa)</t>
   </si>
   <si>
+    <t>230.00</t>
+  </si>
+  <si>
     <t>Fish Fresh(Chhadi)</t>
   </si>
   <si>
-    <t>230.00</t>
-  </si>
-  <si>
     <t>King Oyster</t>
   </si>
   <si>
     <t>Kg</t>
   </si>
   <si>
+    <t>Lentinula Edodes</t>
+  </si>
+  <si>
     <t>1100.00</t>
   </si>
   <si>
@@ -620,9 +623,6 @@
   </si>
   <si>
     <t>1050.00</t>
-  </si>
-  <si>
-    <t>Lentinula Edodes</t>
   </si>
 </sst>
 </file>
@@ -934,22 +934,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -977,19 +977,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -997,19 +997,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1026,10 +1026,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1077,19 +1077,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1097,19 +1097,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1117,19 +1117,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1143,13 +1143,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1157,19 +1157,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1183,10 +1183,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1203,13 +1203,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1223,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -1237,19 +1237,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -1266,7 +1266,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -1286,7 +1286,7 @@
         <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1309,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1317,19 +1317,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1377,19 +1377,19 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -1406,7 +1406,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
@@ -1417,19 +1417,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1457,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1466,10 +1466,10 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1489,7 +1489,7 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1509,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1526,7 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -1537,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1546,10 +1546,10 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -1606,7 +1606,7 @@
         <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -1617,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1626,10 +1626,10 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -1643,10 +1643,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>46</v>
@@ -1657,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1669,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -1709,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1717,19 +1717,19 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
@@ -1737,19 +1737,19 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -1757,19 +1757,19 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -1786,7 +1786,7 @@
         <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
         <v>104</v>
@@ -1803,13 +1803,13 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -1823,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
         <v>67</v>
@@ -1849,7 +1849,7 @@
         <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -1863,13 +1863,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -1897,19 +1897,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
         <v>115</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50">
@@ -1917,19 +1917,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
         <v>120</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>117</v>
-      </c>
-      <c r="E50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -1937,19 +1937,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
         <v>121</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>122</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -1963,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -1983,10 +1983,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
         <v>126</v>
@@ -2003,13 +2003,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
         <v>39</v>
-      </c>
-      <c r="E54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -2023,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
         <v>129</v>
@@ -2037,19 +2037,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -2057,19 +2057,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
         <v>134</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -2077,19 +2077,19 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
         <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -2103,10 +2103,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
         <v>138</v>
@@ -2123,13 +2123,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -2143,13 +2143,13 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -2163,13 +2163,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -2183,13 +2183,13 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -2197,19 +2197,19 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="65">
@@ -2237,19 +2237,19 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
         <v>149</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67">
@@ -2263,13 +2263,13 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -2277,19 +2277,19 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
         <v>152</v>
       </c>
-      <c r="C68" t="s">
-        <v>153</v>
-      </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69">
@@ -2303,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -2323,13 +2323,13 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -2343,10 +2343,10 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
         <v>158</v>
@@ -2366,10 +2366,10 @@
         <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -2377,19 +2377,19 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
         <v>161</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="74">
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
@@ -2417,19 +2417,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="76">
@@ -2443,10 +2443,10 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" t="s">
         <v>166</v>
@@ -2463,13 +2463,13 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -2477,19 +2477,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
         <v>168</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>169</v>
       </c>
       <c r="E78" t="s">
         <v>111</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79">
@@ -2509,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
@@ -2529,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81">
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -2566,10 +2566,10 @@
         <v>103</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83">
@@ -2583,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2597,19 +2597,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
         <v>179</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85">
@@ -2623,13 +2623,13 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
         <v>181</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F87" t="s">
         <v>186</v>
@@ -2683,13 +2683,13 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89">
@@ -2697,19 +2697,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" t="s">
         <v>189</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" t="s">
-        <v>69</v>
-      </c>
-      <c r="F89" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="90">
@@ -2717,7 +2717,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -2726,10 +2726,10 @@
         <v>103</v>
       </c>
       <c r="E90" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" t="s">
         <v>191</v>
-      </c>
-      <c r="F90" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91">
@@ -2743,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" t="s">
         <v>181</v>
@@ -2757,16 +2757,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" t="s">
         <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s">
-        <v>113</v>
-      </c>
-      <c r="E92" t="s">
-        <v>196</v>
       </c>
       <c r="F92" t="s">
         <v>181</v>
@@ -2783,13 +2783,13 @@
         <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94">
@@ -2797,19 +2797,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
         <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
